--- a/pa-temp-fix-system.com/php/export/sp/马文锋keyword.xlsx
+++ b/pa-temp-fix-system.com/php/export/sp/马文锋keyword.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="220">
   <si>
     <t>type</t>
   </si>
@@ -131,6 +131,53 @@
   </si>
   <si>
     <t>amazon_us_sopro</t>
+  </si>
+  <si>
+    <r>
+      <t>通用油位传感器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@sopro35@0430@B</t>
+    </r>
+  </si>
+  <si>
+    <t>aopro240814000944</t>
+  </si>
+  <si>
+    <t>a24081400ux0944</t>
+  </si>
+  <si>
+    <t>sopro241105006601</t>
+  </si>
+  <si>
+    <t>broad</t>
+  </si>
+  <si>
+    <t>oil level sensor 9</t>
+  </si>
+  <si>
+    <t>2025-04-30 16:08:43</t>
   </si>
   <si>
     <r>
@@ -165,24 +212,6 @@
       </rPr>
       <t>@sopro35@0430@B</t>
     </r>
-  </si>
-  <si>
-    <t>aopro240814000944</t>
-  </si>
-  <si>
-    <t>a24081400ux0944</t>
-  </si>
-  <si>
-    <t>sopro241105006601</t>
-  </si>
-  <si>
-    <t>broad</t>
-  </si>
-  <si>
-    <t>oil level sensor 9</t>
-  </si>
-  <si>
-    <t>2025-04-30 16:08:43</t>
   </si>
   <si>
     <t>brake pressure switch 9</t>
@@ -1574,9 +1603,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2114,7 +2144,7 @@
   <dimension ref="A1:Q120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M118" sqref="M118"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2235,7 +2265,7 @@
       <c r="O2">
         <v>20773421</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2252,7 +2282,7 @@
       <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -2279,7 +2309,7 @@
       <c r="O3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2297,7 +2327,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>28</v>
@@ -2321,9 +2351,9 @@
         <v>31</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2341,7 +2371,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>28</v>
@@ -2365,9 +2395,9 @@
         <v>31</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2385,7 +2415,7 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>28</v>
@@ -2409,9 +2439,9 @@
         <v>31</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2429,7 +2459,7 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>28</v>
@@ -2453,9 +2483,9 @@
         <v>31</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2473,7 +2503,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>28</v>
@@ -2497,9 +2527,9 @@
         <v>31</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2517,7 +2547,7 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>28</v>
@@ -2541,9 +2571,9 @@
         <v>31</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2561,19 +2591,19 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F10">
         <v>281673051368872</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>23</v>
@@ -2588,9 +2618,9 @@
         <v>31</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2608,19 +2638,19 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F11">
         <v>281673051368872</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>23</v>
@@ -2635,9 +2665,9 @@
         <v>31</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2655,19 +2685,19 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F12">
         <v>281673051368872</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>23</v>
@@ -2682,9 +2712,9 @@
         <v>31</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2702,19 +2732,19 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F13">
         <v>281673051368872</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>23</v>
@@ -2729,9 +2759,9 @@
         <v>31</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2749,19 +2779,19 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F14">
         <v>281673051368872</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>23</v>
@@ -2776,9 +2806,9 @@
         <v>31</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2796,19 +2826,19 @@
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F15">
         <v>281673051368872</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>23</v>
@@ -2823,9 +2853,9 @@
         <v>31</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2837,25 +2867,25 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16">
         <v>520259971307582</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>23</v>
@@ -2870,10 +2900,10 @@
         <v>31</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="2" t="s">
         <v>70</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2884,25 +2914,25 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F17">
         <v>520259971307582</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>23</v>
@@ -2917,10 +2947,10 @@
         <v>31</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2931,25 +2961,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18">
         <v>520259971307582</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>23</v>
@@ -2964,10 +2994,10 @@
         <v>31</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2978,25 +3008,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F19">
         <v>520259971307582</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>23</v>
@@ -3011,10 +3041,10 @@
         <v>31</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -3025,25 +3055,25 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F20">
         <v>364401568244410</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>23</v>
@@ -3058,10 +3088,10 @@
         <v>31</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q20" s="2" t="s">
         <v>90</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -3072,25 +3102,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F21">
         <v>352630395415298</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>23</v>
@@ -3105,10 +3135,10 @@
         <v>31</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q21" s="2" t="s">
         <v>95</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -3119,25 +3149,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F22">
         <v>352630395415298</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>23</v>
@@ -3152,10 +3182,10 @@
         <v>31</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -3166,25 +3196,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F23">
         <v>352630395415298</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>23</v>
@@ -3199,10 +3229,10 @@
         <v>31</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -3213,25 +3243,25 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F24">
         <v>352630395415298</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>23</v>
@@ -3246,10 +3276,10 @@
         <v>31</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -3260,25 +3290,25 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F25">
         <v>401146203534317</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>23</v>
@@ -3293,10 +3323,10 @@
         <v>31</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q25" s="2" t="s">
         <v>109</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -3307,25 +3337,25 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F26">
         <v>352611572317665</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>23</v>
@@ -3340,10 +3370,10 @@
         <v>31</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q26" s="2" t="s">
         <v>116</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -3354,25 +3384,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F27">
         <v>352611572317665</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>23</v>
@@ -3387,10 +3417,10 @@
         <v>31</v>
       </c>
       <c r="O27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q27" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -3401,22 +3431,22 @@
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>23</v>
@@ -3431,10 +3461,10 @@
         <v>31</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -3445,22 +3475,22 @@
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>23</v>
@@ -3475,10 +3505,10 @@
         <v>31</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -3489,25 +3519,25 @@
         <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F30">
         <v>352611572317665</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>23</v>
@@ -3522,10 +3552,10 @@
         <v>31</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -3536,22 +3566,22 @@
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>23</v>
@@ -3566,10 +3596,10 @@
         <v>31</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -3580,25 +3610,25 @@
         <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F32">
         <v>352611572317665</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>23</v>
@@ -3613,10 +3643,10 @@
         <v>31</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -3627,25 +3657,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F33">
         <v>352611572317665</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>23</v>
@@ -3660,10 +3690,10 @@
         <v>31</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -3674,25 +3704,25 @@
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F34">
         <v>352611572317665</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>23</v>
@@ -3707,10 +3737,10 @@
         <v>31</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3721,25 +3751,25 @@
         <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F35">
         <v>352611572317665</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>23</v>
@@ -3754,10 +3784,10 @@
         <v>31</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3768,25 +3798,25 @@
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F36">
         <v>352611572317665</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>23</v>
@@ -3801,10 +3831,10 @@
         <v>31</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3815,25 +3845,25 @@
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F37">
         <v>352611572317665</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>23</v>
@@ -3848,10 +3878,10 @@
         <v>31</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3862,25 +3892,25 @@
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F38">
         <v>352611572317665</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>23</v>
@@ -3895,10 +3925,10 @@
         <v>31</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>116</v>
+        <v>129</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3909,25 +3939,25 @@
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F39">
         <v>352611572317665</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>23</v>
@@ -3942,10 +3972,10 @@
         <v>31</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3956,25 +3986,25 @@
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F40">
         <v>352611572317665</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>23</v>
@@ -3989,10 +4019,10 @@
         <v>31</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -4003,25 +4033,25 @@
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F41">
         <v>352611572317665</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>23</v>
@@ -4036,10 +4066,10 @@
         <v>31</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -4050,25 +4080,25 @@
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F42">
         <v>352611572317665</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>23</v>
@@ -4083,10 +4113,10 @@
         <v>31</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4097,25 +4127,25 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F43">
         <v>352611572317665</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>23</v>
@@ -4130,10 +4160,10 @@
         <v>31</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>116</v>
+        <v>134</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -4150,16 +4180,16 @@
         <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>23</v>
@@ -4174,10 +4204,10 @@
         <v>31</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q44" s="2" t="s">
         <v>139</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -4194,19 +4224,19 @@
         <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F45">
         <v>548374268054593</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>23</v>
@@ -4221,10 +4251,10 @@
         <v>31</v>
       </c>
       <c r="O45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q45" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -4241,19 +4271,19 @@
         <v>26</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F46">
         <v>548374268054593</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>23</v>
@@ -4268,10 +4298,10 @@
         <v>31</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -4288,16 +4318,16 @@
         <v>26</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>23</v>
@@ -4312,10 +4342,10 @@
         <v>31</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -4332,16 +4362,16 @@
         <v>26</v>
       </c>
       <c r="E48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>23</v>
@@ -4356,10 +4386,10 @@
         <v>31</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -4376,16 +4406,16 @@
         <v>26</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>23</v>
@@ -4400,10 +4430,10 @@
         <v>31</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -4420,19 +4450,19 @@
         <v>26</v>
       </c>
       <c r="E50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F50">
         <v>548374268054593</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>23</v>
@@ -4447,10 +4477,10 @@
         <v>31</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -4467,19 +4497,19 @@
         <v>26</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F51">
         <v>548374268054593</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>23</v>
@@ -4494,10 +4524,10 @@
         <v>31</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -4514,19 +4544,19 @@
         <v>26</v>
       </c>
       <c r="E52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F52">
         <v>548374268054593</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>23</v>
@@ -4541,10 +4571,10 @@
         <v>31</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -4561,19 +4591,19 @@
         <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F53">
         <v>548374268054593</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>23</v>
@@ -4588,10 +4618,10 @@
         <v>31</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -4608,19 +4638,19 @@
         <v>26</v>
       </c>
       <c r="E54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F54">
         <v>548374268054593</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>23</v>
@@ -4635,10 +4665,10 @@
         <v>31</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -4655,19 +4685,19 @@
         <v>26</v>
       </c>
       <c r="E55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F55">
         <v>548374268054593</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>23</v>
@@ -4682,10 +4712,10 @@
         <v>31</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -4702,19 +4732,19 @@
         <v>26</v>
       </c>
       <c r="E56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F56">
         <v>548374268054593</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>23</v>
@@ -4729,10 +4759,10 @@
         <v>31</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -4749,19 +4779,19 @@
         <v>26</v>
       </c>
       <c r="E57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F57">
         <v>548374268054593</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>23</v>
@@ -4776,10 +4806,10 @@
         <v>31</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -4796,19 +4826,19 @@
         <v>26</v>
       </c>
       <c r="E58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F58">
         <v>548374268054593</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>23</v>
@@ -4823,10 +4853,10 @@
         <v>31</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>139</v>
+        <v>154</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4843,19 +4873,19 @@
         <v>26</v>
       </c>
       <c r="E59" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F59">
         <v>548374268054593</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>23</v>
@@ -4870,10 +4900,10 @@
         <v>31</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>139</v>
+        <v>155</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4890,19 +4920,19 @@
         <v>26</v>
       </c>
       <c r="E60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F60">
         <v>548374268054593</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>23</v>
@@ -4917,10 +4947,10 @@
         <v>31</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>139</v>
+        <v>156</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4937,19 +4967,19 @@
         <v>26</v>
       </c>
       <c r="E61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F61">
         <v>548374268054593</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>23</v>
@@ -4964,10 +4994,10 @@
         <v>31</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>139</v>
+        <v>157</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4984,19 +5014,19 @@
         <v>26</v>
       </c>
       <c r="E62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F62">
         <v>344293652377837</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>23</v>
@@ -5008,13 +5038,13 @@
         <v>2</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -5031,16 +5061,16 @@
         <v>26</v>
       </c>
       <c r="E63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>23</v>
@@ -5052,13 +5082,13 @@
         <v>2</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
+      </c>
+      <c r="Q63" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -5075,16 +5105,16 @@
         <v>26</v>
       </c>
       <c r="E64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>23</v>
@@ -5096,13 +5126,13 @@
         <v>2</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q64" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
+      </c>
+      <c r="Q64" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -5119,19 +5149,19 @@
         <v>26</v>
       </c>
       <c r="E65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F65">
         <v>344293652377837</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>23</v>
@@ -5143,13 +5173,13 @@
         <v>2</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -5166,19 +5196,19 @@
         <v>26</v>
       </c>
       <c r="E66" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F66">
         <v>344293652377837</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>23</v>
@@ -5190,13 +5220,13 @@
         <v>2</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q66" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -5213,16 +5243,16 @@
         <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>23</v>
@@ -5234,13 +5264,13 @@
         <v>2</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O67" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q67" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -5257,19 +5287,19 @@
         <v>26</v>
       </c>
       <c r="E68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F68">
         <v>344293652377837</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>23</v>
@@ -5281,13 +5311,13 @@
         <v>2</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -5304,19 +5334,19 @@
         <v>26</v>
       </c>
       <c r="E69" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F69">
         <v>344293652377837</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>23</v>
@@ -5328,13 +5358,13 @@
         <v>2</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q69" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
+      </c>
+      <c r="Q69" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -5351,19 +5381,19 @@
         <v>26</v>
       </c>
       <c r="E70" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F70">
         <v>344293652377837</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>23</v>
@@ -5375,13 +5405,13 @@
         <v>2</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q70" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -5398,19 +5428,19 @@
         <v>26</v>
       </c>
       <c r="E71" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F71">
         <v>344293652377837</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>23</v>
@@ -5422,13 +5452,13 @@
         <v>2</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q71" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
+      </c>
+      <c r="Q71" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -5445,19 +5475,19 @@
         <v>26</v>
       </c>
       <c r="E72" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F72">
         <v>344293652377837</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>23</v>
@@ -5469,13 +5499,13 @@
         <v>2</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -5492,19 +5522,19 @@
         <v>26</v>
       </c>
       <c r="E73" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F73">
         <v>344293652377837</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>23</v>
@@ -5516,13 +5546,13 @@
         <v>2</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
+      </c>
+      <c r="Q73" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -5539,19 +5569,19 @@
         <v>26</v>
       </c>
       <c r="E74" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F74">
         <v>344293652377837</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>23</v>
@@ -5563,13 +5593,13 @@
         <v>2</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q74" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -5586,19 +5616,19 @@
         <v>26</v>
       </c>
       <c r="E75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F75">
         <v>344293652377837</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>23</v>
@@ -5610,13 +5640,13 @@
         <v>2</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
+      </c>
+      <c r="Q75" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -5633,19 +5663,19 @@
         <v>26</v>
       </c>
       <c r="E76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F76">
         <v>344293652377837</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>23</v>
@@ -5657,13 +5687,13 @@
         <v>2</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q76" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -5680,19 +5710,19 @@
         <v>26</v>
       </c>
       <c r="E77" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F77">
         <v>344293652377837</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>23</v>
@@ -5704,13 +5734,13 @@
         <v>2</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q77" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
+      </c>
+      <c r="Q77" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -5727,19 +5757,19 @@
         <v>26</v>
       </c>
       <c r="E78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F78">
         <v>344293652377837</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>23</v>
@@ -5751,13 +5781,13 @@
         <v>2</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
+      </c>
+      <c r="Q78" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -5774,19 +5804,19 @@
         <v>26</v>
       </c>
       <c r="E79" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F79">
         <v>409741722556159</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>23</v>
@@ -5801,10 +5831,10 @@
         <v>24</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q79" s="2" t="s">
-        <v>169</v>
+        <v>139</v>
+      </c>
+      <c r="Q79" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -5821,19 +5851,19 @@
         <v>26</v>
       </c>
       <c r="E80" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F80">
         <v>409741722556159</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>23</v>
@@ -5848,10 +5878,10 @@
         <v>24</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>169</v>
+        <v>142</v>
+      </c>
+      <c r="Q80" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -5868,19 +5898,19 @@
         <v>26</v>
       </c>
       <c r="E81" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F81">
         <v>409741722556159</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>23</v>
@@ -5895,10 +5925,10 @@
         <v>24</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q81" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -5915,19 +5945,19 @@
         <v>26</v>
       </c>
       <c r="E82" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F82">
         <v>409741722556159</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>23</v>
@@ -5942,10 +5972,10 @@
         <v>24</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q82" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
+      </c>
+      <c r="Q82" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -5962,19 +5992,19 @@
         <v>26</v>
       </c>
       <c r="E83" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F83">
         <v>409741722556159</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>23</v>
@@ -5989,10 +6019,10 @@
         <v>24</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q83" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -6009,19 +6039,19 @@
         <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F84">
         <v>409741722556159</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>23</v>
@@ -6036,10 +6066,10 @@
         <v>24</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q84" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
+      </c>
+      <c r="Q84" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -6056,19 +6086,19 @@
         <v>26</v>
       </c>
       <c r="E85" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F85">
         <v>409741722556159</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>23</v>
@@ -6083,10 +6113,10 @@
         <v>24</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q85" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
+      </c>
+      <c r="Q85" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -6103,19 +6133,19 @@
         <v>26</v>
       </c>
       <c r="E86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F86">
         <v>409741722556159</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>23</v>
@@ -6130,10 +6160,10 @@
         <v>24</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q86" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
+      </c>
+      <c r="Q86" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -6150,19 +6180,19 @@
         <v>26</v>
       </c>
       <c r="E87" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F87">
         <v>409741722556159</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>23</v>
@@ -6177,10 +6207,10 @@
         <v>24</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q87" s="2" t="s">
-        <v>169</v>
+        <v>150</v>
+      </c>
+      <c r="Q87" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -6197,19 +6227,19 @@
         <v>26</v>
       </c>
       <c r="E88" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F88">
         <v>409741722556159</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>23</v>
@@ -6224,10 +6254,10 @@
         <v>24</v>
       </c>
       <c r="O88" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q88" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="Q88" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -6244,19 +6274,19 @@
         <v>26</v>
       </c>
       <c r="E89" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F89">
         <v>409741722556159</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>23</v>
@@ -6271,10 +6301,10 @@
         <v>24</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q89" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -6291,19 +6321,19 @@
         <v>26</v>
       </c>
       <c r="E90" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F90">
         <v>409741722556159</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>23</v>
@@ -6318,10 +6348,10 @@
         <v>24</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q90" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
+      </c>
+      <c r="Q90" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -6338,19 +6368,19 @@
         <v>26</v>
       </c>
       <c r="E91" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F91">
         <v>409741722556159</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>23</v>
@@ -6365,10 +6395,10 @@
         <v>24</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q91" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -6385,19 +6415,19 @@
         <v>26</v>
       </c>
       <c r="E92" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F92">
         <v>409741722556159</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>23</v>
@@ -6412,10 +6442,10 @@
         <v>24</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q92" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
+      </c>
+      <c r="Q92" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -6429,19 +6459,19 @@
         <v>17</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>23</v>
@@ -6456,10 +6486,10 @@
         <v>31</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q93" s="2" t="s">
         <v>180</v>
+      </c>
+      <c r="Q93" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -6473,19 +6503,19 @@
         <v>17</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>23</v>
@@ -6500,10 +6530,10 @@
         <v>31</v>
       </c>
       <c r="O94" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q94" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="Q94" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -6517,22 +6547,22 @@
         <v>17</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F95">
         <v>344430198524415</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>23</v>
@@ -6547,10 +6577,10 @@
         <v>31</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q95" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
+      </c>
+      <c r="Q95" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -6564,22 +6594,22 @@
         <v>17</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F96">
         <v>344430198524415</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>23</v>
@@ -6594,10 +6624,10 @@
         <v>31</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q96" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
+      </c>
+      <c r="Q96" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -6611,22 +6641,22 @@
         <v>17</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F97">
         <v>344430198524415</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>23</v>
@@ -6641,10 +6671,10 @@
         <v>31</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q97" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
+      </c>
+      <c r="Q97" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -6658,22 +6688,22 @@
         <v>17</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F98">
         <v>344430198524415</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>23</v>
@@ -6688,10 +6718,10 @@
         <v>31</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q98" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
+      </c>
+      <c r="Q98" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -6705,22 +6735,22 @@
         <v>17</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F99">
         <v>344430198524415</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>23</v>
@@ -6735,10 +6765,10 @@
         <v>31</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q99" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
+      </c>
+      <c r="Q99" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -6749,22 +6779,22 @@
         <v>3</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>23</v>
@@ -6779,10 +6809,10 @@
         <v>24</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q100" s="2" t="s">
         <v>193</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -6793,22 +6823,22 @@
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>23</v>
@@ -6823,10 +6853,10 @@
         <v>24</v>
       </c>
       <c r="O101" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q101" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="Q101" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -6837,22 +6867,22 @@
         <v>3</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>23</v>
@@ -6867,10 +6897,10 @@
         <v>24</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q102" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -6881,25 +6911,25 @@
         <v>3</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F103">
         <v>358030677594976</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>23</v>
@@ -6914,10 +6944,10 @@
         <v>24</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q103" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
+      </c>
+      <c r="Q103" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -6928,25 +6958,25 @@
         <v>3</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F104">
         <v>358030677594976</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K104" s="1" t="s">
         <v>23</v>
@@ -6961,10 +6991,10 @@
         <v>24</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q104" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
+      </c>
+      <c r="Q104" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -6975,22 +7005,22 @@
         <v>3</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>23</v>
@@ -7005,10 +7035,10 @@
         <v>24</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q105" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
+      </c>
+      <c r="Q105" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -7019,22 +7049,22 @@
         <v>3</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>23</v>
@@ -7049,10 +7079,10 @@
         <v>24</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q106" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
+      </c>
+      <c r="Q106" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -7063,25 +7093,25 @@
         <v>3</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F107">
         <v>358030677594976</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>23</v>
@@ -7096,10 +7126,10 @@
         <v>24</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q107" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
+      </c>
+      <c r="Q107" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -7110,22 +7140,22 @@
         <v>3</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>23</v>
@@ -7140,10 +7170,10 @@
         <v>24</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q108" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
+      </c>
+      <c r="Q108" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -7154,25 +7184,25 @@
         <v>3</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F109">
         <v>358030677594976</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>23</v>
@@ -7187,10 +7217,10 @@
         <v>24</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q109" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
+      </c>
+      <c r="Q109" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -7201,25 +7231,25 @@
         <v>3</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F110">
         <v>358030677594976</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>23</v>
@@ -7234,10 +7264,10 @@
         <v>24</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q110" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
+      </c>
+      <c r="Q110" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -7248,22 +7278,22 @@
         <v>3</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>23</v>
@@ -7278,10 +7308,10 @@
         <v>24</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q111" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
+      </c>
+      <c r="Q111" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -7292,22 +7322,22 @@
         <v>3</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>23</v>
@@ -7322,10 +7352,10 @@
         <v>24</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q112" s="2" t="s">
-        <v>193</v>
+        <v>206</v>
+      </c>
+      <c r="Q112" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -7336,25 +7366,25 @@
         <v>3</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F113">
         <v>358030677594976</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>23</v>
@@ -7369,10 +7399,10 @@
         <v>24</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q113" s="2" t="s">
-        <v>193</v>
+        <v>207</v>
+      </c>
+      <c r="Q113" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -7383,25 +7413,25 @@
         <v>3</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F114">
         <v>358030677594976</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>23</v>
@@ -7416,10 +7446,10 @@
         <v>24</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q114" s="2" t="s">
-        <v>193</v>
+        <v>208</v>
+      </c>
+      <c r="Q114" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -7430,25 +7460,25 @@
         <v>3</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F115">
         <v>358030677594976</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>23</v>
@@ -7463,10 +7493,10 @@
         <v>24</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q115" s="2" t="s">
-        <v>193</v>
+        <v>209</v>
+      </c>
+      <c r="Q115" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -7477,25 +7507,25 @@
         <v>3</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F116">
         <v>358030677594976</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>23</v>
@@ -7510,10 +7540,10 @@
         <v>24</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q116" s="2" t="s">
-        <v>193</v>
+        <v>210</v>
+      </c>
+      <c r="Q116" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -7524,25 +7554,25 @@
         <v>3</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F117">
         <v>358030677594976</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>23</v>
@@ -7557,10 +7587,10 @@
         <v>24</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q117" s="2" t="s">
-        <v>193</v>
+        <v>211</v>
+      </c>
+      <c r="Q117" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -7571,25 +7601,25 @@
         <v>3</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F118">
         <v>358030677594976</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K118" s="1" t="s">
         <v>23</v>
@@ -7604,10 +7634,10 @@
         <v>24</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q118" s="2" t="s">
-        <v>193</v>
+        <v>212</v>
+      </c>
+      <c r="Q118" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -7618,25 +7648,25 @@
         <v>3</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F119">
         <v>358030677594976</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>23</v>
@@ -7651,10 +7681,10 @@
         <v>24</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q119" s="2" t="s">
         <v>193</v>
+      </c>
+      <c r="Q119" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -7665,25 +7695,25 @@
         <v>3</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F120">
         <v>358030677594976</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K120" s="1" t="s">
         <v>23</v>
@@ -7698,10 +7728,10 @@
         <v>24</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q120" s="2" t="s">
-        <v>193</v>
+        <v>219</v>
+      </c>
+      <c r="Q120" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
